--- a/todo/Aufrufe und Abhängikeiten.xlsx
+++ b/todo/Aufrufe und Abhängikeiten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\clouds\onedrive\Dirk\projects\disk2iso\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272185E-290E-4A47-913B-7DA99FF3B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB931A47-E294-4E13-BC5F-72C5C51A0E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27720" yWindow="0" windowWidth="10620" windowHeight="21000" xr2:uid="{4A6EAD19-60BA-41C0-BAC3-561F79503818}"/>
+    <workbookView xWindow="27960" yWindow="0" windowWidth="10380" windowHeight="20970" xr2:uid="{4A6EAD19-60BA-41C0-BAC3-561F79503818}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
-  <si>
-    <t>Disk2ISO - Daemon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="80">
   <si>
     <t>Definition der Konstanten für die State Machine</t>
   </si>
@@ -120,13 +117,172 @@
   </si>
   <si>
     <t>none (Global State Status)</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>VERBOSE</t>
+  </si>
+  <si>
+    <t>STRICT</t>
+  </si>
+  <si>
+    <t># Datei + Zeilennummer</t>
+  </si>
+  <si>
+    <t>#Zeile während Bearbeitung</t>
+  </si>
+  <si>
+    <t># Abbruch bei Fehler</t>
+  </si>
+  <si>
+    <t>none (DEBUG-MODUS)</t>
+  </si>
+  <si>
+    <t>Debug-Modus setzen</t>
+  </si>
+  <si>
+    <t>none (MODUL-LOADING)</t>
+  </si>
+  <si>
+    <t>Ausführungspfad des Scipt bestimmen</t>
+  </si>
+  <si>
+    <t>SCRIPT_DIR</t>
+  </si>
+  <si>
+    <t># default /opt/disk2iso</t>
+  </si>
+  <si>
+    <t>Disk2ISO - Daemon (Start)</t>
+  </si>
+  <si>
+    <t>none (CHECK_DEPENDENCIES &amp; LOAD MODULES)</t>
+  </si>
+  <si>
+    <t>Laden der einzelnen Module</t>
+  </si>
+  <si>
+    <t>check_dependencies</t>
+  </si>
+  <si>
+    <t># Modul liblogging.sh laden</t>
+  </si>
+  <si>
+    <t># Modul libsettings.sh laden</t>
+  </si>
+  <si>
+    <t># Modul libfolders.sh laden</t>
+  </si>
+  <si>
+    <t># Modul libfiles.sh laden</t>
+  </si>
+  <si>
+    <t># Modul libintegrity.sh laden</t>
+  </si>
+  <si>
+    <t>integrity_load_modules</t>
+  </si>
+  <si>
+    <t>logging_check_dependencies</t>
+  </si>
+  <si>
+    <t>liblogging.sh</t>
+  </si>
+  <si>
+    <t>Prüft Abhängikeiten des Modul</t>
+  </si>
+  <si>
+    <t>logging_load_language_file</t>
+  </si>
+  <si>
+    <t># lädt die Sprachdatei</t>
+  </si>
+  <si>
+    <t>Lädt die Sprachdatei des Modul</t>
+  </si>
+  <si>
+    <t>source {modul}</t>
+  </si>
+  <si>
+    <t>libsettings.sh</t>
+  </si>
+  <si>
+    <t>settings_check_dependencies</t>
+  </si>
+  <si>
+    <t>settings_validate_file</t>
+  </si>
+  <si>
+    <t>Prüft das Vorhandensein der disk2iso.conf</t>
+  </si>
+  <si>
+    <t>folders_check_dependencies</t>
+  </si>
+  <si>
+    <t>libfolders.sh</t>
+  </si>
+  <si>
+    <t>folders_get_output_dir</t>
+  </si>
+  <si>
+    <t># Ausgabeordner erstellen</t>
+  </si>
+  <si>
+    <t>! -d "$output_dir"</t>
+  </si>
+  <si>
+    <t># Verzeichnis exisiert noch nicht</t>
+  </si>
+  <si>
+    <t>! -d "$parent_dir"</t>
+  </si>
+  <si>
+    <t># Übergeordneter Ordner existiert</t>
+  </si>
+  <si>
+    <t>! mkdir -p "$output_dir"</t>
+  </si>
+  <si>
+    <t># Verzeichnis erzeugen</t>
+  </si>
+  <si>
+    <t>chmod $DIR_PERMISSIONS_PUBLIC "$output_dir"</t>
+  </si>
+  <si>
+    <t># Berechtigungen setzten</t>
+  </si>
+  <si>
+    <t>fieles_check_dependencies</t>
+  </si>
+  <si>
+    <t>libintegrity.sh</t>
+  </si>
+  <si>
+    <t>libfiles.sh</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;</t>
+  </si>
+  <si>
+    <t>_OUTPUT_DIR_CREATED</t>
+  </si>
+  <si>
+    <t># Prüfung ob in dieser Sitzung schon geprüft/erzeugt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +309,11 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -168,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -398,42 +559,520 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -768,239 +1407,1942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2432776-D798-4869-A89D-BCD5B66123B4}">
-  <dimension ref="B2:D30"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F69" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="3.28515625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="7" customWidth="1"/>
+    <col min="10" max="11" width="3.28515625" style="7" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="44" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" style="7" customWidth="1"/>
+    <col min="17" max="18" width="3.28515625" style="44" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.7109375" style="7" customWidth="1"/>
+    <col min="22" max="23" width="3.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="30.7109375" style="7" customWidth="1"/>
+    <col min="27" max="28" width="3.28515625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="1.7109375" style="7" customWidth="1"/>
+    <col min="31" max="31" width="30.7109375" style="7" customWidth="1"/>
+    <col min="32" max="35" width="3.28515625" style="7" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="W2" s="42"/>
+      <c r="AB2" s="42"/>
+    </row>
+    <row r="3" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="W3" s="42"/>
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="32"/>
+      <c r="F4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="W4" s="42"/>
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="W5" s="42"/>
+      <c r="AB5" s="42"/>
+    </row>
+    <row r="6" spans="2:31" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="F6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="W6" s="42"/>
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="F7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="W7" s="42"/>
+      <c r="AB7" s="42"/>
+    </row>
+    <row r="8" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="W8" s="42"/>
+      <c r="AB8" s="42"/>
+    </row>
+    <row r="9" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="W9" s="42"/>
+      <c r="AB9" s="42"/>
+    </row>
+    <row r="10" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="W10" s="42"/>
+      <c r="AB10" s="42"/>
+    </row>
+    <row r="11" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="W11" s="42"/>
+      <c r="AB11" s="42"/>
+    </row>
+    <row r="12" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="F12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="W12" s="42"/>
+      <c r="AB12" s="42"/>
+    </row>
+    <row r="13" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="W13" s="42"/>
+      <c r="AB13" s="42"/>
+    </row>
+    <row r="14" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="W14" s="42"/>
+      <c r="AB14" s="42"/>
+    </row>
+    <row r="15" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="W15" s="42"/>
+      <c r="AB15" s="42"/>
+    </row>
+    <row r="16" spans="2:31" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="W16" s="42"/>
+      <c r="AB16" s="42"/>
+    </row>
+    <row r="17" spans="2:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="W17" s="42"/>
+      <c r="AB17" s="42"/>
+    </row>
+    <row r="18" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="W18" s="42"/>
+      <c r="AB18" s="42"/>
+    </row>
+    <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="32"/>
+      <c r="F19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="W19" s="42"/>
+      <c r="AB19" s="42"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="W20" s="42"/>
+      <c r="AB20" s="42"/>
+    </row>
+    <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="C21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="W21" s="42"/>
+      <c r="AB21" s="42"/>
+    </row>
+    <row r="22" spans="2:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="F22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="W22" s="42"/>
+      <c r="AB22" s="42"/>
+    </row>
+    <row r="23" spans="2:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="F23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="W23" s="42"/>
+      <c r="AB23" s="42"/>
+    </row>
+    <row r="24" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="F24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="W24" s="42"/>
+      <c r="AB24" s="42"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="32"/>
+      <c r="F25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="W25" s="42"/>
+      <c r="AB25" s="42"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="W26" s="42"/>
+      <c r="AB26" s="42"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="W27" s="42"/>
+      <c r="AB27" s="42"/>
+    </row>
+    <row r="28" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="W28" s="42"/>
+      <c r="AB28" s="42"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="32"/>
+      <c r="F29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="W29" s="42"/>
+      <c r="AB29" s="42"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="W30" s="42"/>
+      <c r="AB30" s="42"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="W31" s="42"/>
+      <c r="AB31" s="42"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="W32" s="42"/>
+      <c r="AB32" s="42"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="W33" s="42"/>
+      <c r="AB33" s="42"/>
+    </row>
+    <row r="34" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="W34" s="42"/>
+      <c r="AB34" s="42"/>
+    </row>
+    <row r="35" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="32"/>
+      <c r="F35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="W35" s="42"/>
+      <c r="AB35" s="42"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="W36" s="42"/>
+      <c r="AB36" s="42"/>
+    </row>
+    <row r="37" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="W37" s="42"/>
+      <c r="AB37" s="42"/>
+    </row>
+    <row r="38" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="W38" s="42"/>
+      <c r="AB38" s="42"/>
+    </row>
+    <row r="39" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="32"/>
+      <c r="F39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="W39" s="42"/>
+      <c r="AB39" s="42"/>
+    </row>
+    <row r="40" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="W40" s="42"/>
+      <c r="AB40" s="42"/>
+    </row>
+    <row r="41" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="W41" s="42"/>
+      <c r="AB41" s="42"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="W42" s="42"/>
+      <c r="AB42" s="42"/>
+    </row>
+    <row r="43" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="M43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="W43" s="42"/>
+      <c r="AB43" s="42"/>
+    </row>
+    <row r="44" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="60"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="M44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="W44" s="42"/>
+      <c r="AB44" s="42"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F45" s="60"/>
+      <c r="G45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="M45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="W45" s="42"/>
+      <c r="AB45" s="42"/>
+    </row>
+    <row r="46" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="60"/>
+      <c r="G46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="M46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="W46" s="42"/>
+      <c r="AB46" s="42"/>
+    </row>
+    <row r="47" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="60"/>
+      <c r="G47" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="M47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="W47" s="42"/>
+      <c r="AB47" s="42"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F48" s="60"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="M48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="W48" s="42"/>
+      <c r="AB48" s="42"/>
+    </row>
+    <row r="49" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="60"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="W49" s="42"/>
+      <c r="AB49" s="42"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F50" s="60"/>
+      <c r="G50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="W50" s="42"/>
+      <c r="AB50" s="42"/>
+    </row>
+    <row r="51" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="60"/>
+      <c r="G51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="W51" s="42"/>
+      <c r="AB51" s="42"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D52" s="30"/>
+      <c r="E52" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="W52" s="42"/>
+      <c r="AB52" s="42"/>
+    </row>
+    <row r="53" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="36"/>
+      <c r="F53" s="60"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="W53" s="42"/>
+      <c r="AB53" s="42"/>
+    </row>
+    <row r="54" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="W54" s="42"/>
+      <c r="AB54" s="42"/>
+    </row>
+    <row r="55" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="W55" s="42"/>
+      <c r="AB55" s="42"/>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="W56" s="42"/>
+      <c r="AB56" s="42"/>
+    </row>
+    <row r="57" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="3"/>
+      <c r="F57" s="60"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="W57" s="42"/>
+      <c r="AB57" s="42"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D58" s="34"/>
+      <c r="E58" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="R58" s="60"/>
+      <c r="W58" s="42"/>
+      <c r="AB58" s="42"/>
+    </row>
+    <row r="59" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="60"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="60"/>
+      <c r="P59" s="37"/>
+      <c r="R59" s="60"/>
+      <c r="W59" s="42"/>
+      <c r="AB59" s="42"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F60" s="60"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="60"/>
+      <c r="W60" s="42"/>
+      <c r="AB60" s="42"/>
+    </row>
+    <row r="61" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="60"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R61" s="60"/>
+      <c r="W61" s="42"/>
+      <c r="AB61" s="42"/>
+    </row>
+    <row r="62" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="60"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M62" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="39"/>
+      <c r="P62" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62" s="60"/>
+      <c r="W62" s="42"/>
+      <c r="AB62" s="42"/>
+    </row>
+    <row r="63" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="60"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="60"/>
+      <c r="P63" s="37"/>
+      <c r="R63" s="60"/>
+      <c r="W63" s="42"/>
+      <c r="AB63" s="42"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F64" s="60"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R64" s="60"/>
+      <c r="W64" s="42"/>
+      <c r="AB64" s="42"/>
+    </row>
+    <row r="65" spans="2:28" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="60"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R65" s="60"/>
+      <c r="W65" s="42"/>
+      <c r="AB65" s="42"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D66" s="30"/>
+      <c r="E66" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N66" s="30"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="32"/>
+      <c r="R66" s="60"/>
+      <c r="W66" s="42"/>
+      <c r="AB66" s="42"/>
+    </row>
+    <row r="67" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="36"/>
+      <c r="F67" s="60"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="W67" s="42"/>
+      <c r="AB67" s="42"/>
+    </row>
+    <row r="68" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="W68" s="42"/>
+      <c r="AB68" s="42"/>
+    </row>
+    <row r="69" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="W69" s="42"/>
+      <c r="AB69" s="42"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B70" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="W70" s="42"/>
+      <c r="AB70" s="42"/>
+    </row>
+    <row r="71" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="60"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="W71" s="42"/>
+      <c r="AB71" s="42"/>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D72" s="34"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="W72" s="42"/>
+      <c r="AB72" s="42"/>
+    </row>
+    <row r="73" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="60"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="U73" s="37"/>
+      <c r="W73" s="42"/>
+      <c r="AB73" s="42"/>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F74" s="60"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="60"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" s="42"/>
+      <c r="AB74" s="42"/>
+    </row>
+    <row r="75" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="60"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="R75" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="S75" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W75" s="42"/>
+      <c r="AB75" s="42"/>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F76" s="60"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M76" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="R76" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S76" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T76" s="27"/>
+      <c r="U76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W76" s="42"/>
+      <c r="AB76" s="42"/>
+    </row>
+    <row r="77" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="60"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="60"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T77" s="29"/>
+      <c r="U77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W77" s="42"/>
+      <c r="AB77" s="42"/>
+    </row>
+    <row r="78" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="60"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="60"/>
+      <c r="R78" s="60"/>
+      <c r="U78" s="37"/>
+      <c r="W78" s="42"/>
+      <c r="AB78" s="42"/>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F79" s="60"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W79" s="42"/>
+      <c r="AB79" s="42"/>
+    </row>
+    <row r="80" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="60"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T80" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W80" s="42"/>
+      <c r="AB80" s="42"/>
+    </row>
+    <row r="81" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F81" s="60"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="60"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="T81" s="28"/>
+      <c r="U81" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="W81" s="42"/>
+      <c r="AB81" s="42"/>
+    </row>
+    <row r="82" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F82" s="60"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="60"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T82" s="28"/>
+      <c r="U82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W82" s="42"/>
+      <c r="AB82" s="42"/>
+    </row>
+    <row r="83" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F83" s="60"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="T83" s="28"/>
+      <c r="U83" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W83" s="42"/>
+      <c r="AB83" s="42"/>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F84" s="60"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T84" s="28"/>
+      <c r="U84" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W84" s="42"/>
+      <c r="AB84" s="42"/>
+    </row>
+    <row r="85" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="60"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="60"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="T85" s="29"/>
+      <c r="U85" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W85" s="42"/>
+      <c r="AB85" s="42"/>
+    </row>
+    <row r="86" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D86" s="30"/>
+      <c r="E86" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M86" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="R86" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="S86" s="30"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="32"/>
+      <c r="W86" s="42"/>
+      <c r="AB86" s="42"/>
+    </row>
+    <row r="87" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="37"/>
+      <c r="F87" s="60"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="60"/>
+      <c r="R87" s="60"/>
+      <c r="W87" s="42"/>
+      <c r="AB87" s="42"/>
+    </row>
+    <row r="88" spans="2:28" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="60"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="W88" s="42"/>
+      <c r="AB88" s="42"/>
+    </row>
+    <row r="89" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="60"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="W89" s="42"/>
+      <c r="AB89" s="42"/>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B90" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="60"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="W90" s="42"/>
+      <c r="AB90" s="42"/>
+    </row>
+    <row r="91" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="3"/>
+      <c r="F91" s="60"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="W91" s="42"/>
+      <c r="AB91" s="42"/>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="D92" s="34"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="61"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="61"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="AB92" s="42"/>
+    </row>
+    <row r="93" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="60"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="60"/>
+      <c r="R93" s="60"/>
+      <c r="W93" s="42"/>
+      <c r="Z93" s="37"/>
+      <c r="AB93" s="42"/>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F94" s="60"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="60"/>
+      <c r="R94" s="60"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y94" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB94" s="42"/>
+    </row>
+    <row r="95" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="60"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q95" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="R95" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="V95" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W95" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y95" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB95" s="42"/>
+    </row>
+    <row r="96" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="60"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="M96" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N96" s="53"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="R96" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="W96" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X96" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y96" s="39"/>
+      <c r="Z96" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB96" s="42"/>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D97" s="30"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N97" s="30"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="R97" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="S97" s="30"/>
+      <c r="T97" s="30"/>
+      <c r="U97" s="30"/>
+      <c r="V97" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="W97" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="37"/>
+      <c r="AB97" s="42"/>
+    </row>
+    <row r="98" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="37"/>
+      <c r="F98" s="60"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="70"/>
+      <c r="M98" s="60"/>
+      <c r="R98" s="60"/>
+      <c r="W98" s="42"/>
+      <c r="AB98" s="42"/>
+    </row>
+    <row r="99" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="60"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="60"/>
+      <c r="R99" s="60"/>
+      <c r="W99" s="42"/>
+      <c r="AB99" s="42"/>
+    </row>
+    <row r="100" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="60"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="60"/>
+      <c r="R100" s="60"/>
+      <c r="W100" s="42"/>
+      <c r="AB100" s="42"/>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B101" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="60"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="70"/>
+      <c r="M101" s="60"/>
+      <c r="R101" s="60"/>
+      <c r="W101" s="42"/>
+      <c r="AB101" s="42"/>
+    </row>
+    <row r="102" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="3"/>
+      <c r="F102" s="60"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="70"/>
+      <c r="M102" s="60"/>
+      <c r="R102" s="60"/>
+      <c r="W102" s="42"/>
+      <c r="AB102" s="42"/>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D103" s="34"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="61"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="30"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
+    </row>
+    <row r="104" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="60"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="65"/>
+      <c r="R104" s="65"/>
+      <c r="W104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AE104" s="31"/>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K105" s="37"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="60"/>
+      <c r="R105" s="60"/>
+      <c r="W105" s="42"/>
+      <c r="AB105" s="42"/>
+      <c r="AC105" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="AD105" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE105" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K106" s="37"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="60"/>
+      <c r="R106" s="60"/>
+      <c r="W106" s="42"/>
+      <c r="AB106" s="42"/>
+      <c r="AC106" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD106" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE106" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K107" s="37"/>
+      <c r="L107" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M107" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q107" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="R107" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="V107" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W107" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB107" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC107" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="AD107" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE107" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K108" s="50"/>
+      <c r="L108" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M108" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="53"/>
+      <c r="Q108" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="R108" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="S108" s="53"/>
+      <c r="T108" s="53"/>
+      <c r="U108" s="53"/>
+      <c r="V108" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="W108" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="X108" s="53"/>
+      <c r="Y108" s="53"/>
+      <c r="Z108" s="53"/>
+      <c r="AA108" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB108" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC108" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD108" s="39"/>
+      <c r="AE108" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D109" s="30"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="30"/>
+      <c r="U109" s="30"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="43"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="43"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="35"/>
+      <c r="AE109" s="32"/>
+    </row>
+    <row r="110" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="33"/>
+      <c r="M110" s="60"/>
+      <c r="R110" s="60"/>
+      <c r="W110" s="42"/>
+      <c r="AB110" s="42"/>
+    </row>
+    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111" s="60"/>
+      <c r="R111" s="60"/>
+      <c r="W111" s="42"/>
+      <c r="AB111" s="42"/>
+    </row>
+    <row r="112" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B112" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C112" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="60"/>
+      <c r="R112" s="60"/>
+      <c r="W112" s="42"/>
+      <c r="AB112" s="42"/>
+    </row>
+    <row r="113" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="2:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="C113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M113" s="60"/>
+      <c r="R113" s="60"/>
+      <c r="W113" s="42"/>
+      <c r="AB113" s="42"/>
+    </row>
+    <row r="114" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="3"/>
+      <c r="M114" s="60"/>
+      <c r="R114" s="60"/>
+      <c r="W114" s="42"/>
+      <c r="AB114" s="42"/>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="M115" s="60"/>
+      <c r="R115" s="60"/>
+      <c r="W115" s="42"/>
+      <c r="AB115" s="42"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <mergeCells count="7">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="X1:Z1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>